--- a/Data/SuiteA.xlsx
+++ b/Data/SuiteA.xlsx
@@ -865,7 +865,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>59</v>

--- a/Data/SuiteA.xlsx
+++ b/Data/SuiteA.xlsx
@@ -865,7 +865,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>59</v>
